--- a/Excel/Data files/Lecture_4_Dates.xlsx
+++ b/Excel/Data files/Lecture_4_Dates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ds_30\Excel\Data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B43476-731B-4E30-BB6B-A44063EAFD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3C7C1E-14C3-41CC-9EC3-4B38C7D2D322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,11 +155,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yy\ \ h:mm"/>
-    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="169" formatCode="dd\-mm\-yyyy\ hh:mm"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="dd\-mm\-yyyy\ hh:mm"/>
+    <numFmt numFmtId="171" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -389,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -444,63 +445,65 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -531,8 +534,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1467,7 +1469,7 @@
   <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="N17" sqref="N17:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1502,24 +1504,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1528,13 +1530,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1545,80 +1547,77 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
       <c r="M6" s="21" t="s">
         <v>4</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5">
         <f ca="1">TODAY()</f>
-        <v>45441</v>
+        <v>45568</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
       <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
       <c r="M8" s="21"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
       <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
       <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
       <c r="M11" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N11" s="24">
-        <f ca="1">NOW()</f>
-        <v>45441.550125462963</v>
-      </c>
+      <c r="N11" s="24"/>
       <c r="O11" s="23">
         <f ca="1">NOW()</f>
-        <v>45441.550125462963</v>
+        <v>45568.741018171298</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.6">
@@ -1632,94 +1631,96 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
       <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
       <c r="M15" s="21"/>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
       <c r="M16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="61">
+      <c r="N16" s="32">
         <f ca="1">NOW()</f>
-        <v>45441.550125462963</v>
+        <v>45568.741018171298</v>
       </c>
       <c r="O16" s="31">
         <f ca="1">NOW()</f>
-        <v>45441.550125462963</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-    </row>
-    <row r="18" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
-    </row>
-    <row r="19" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
-      <c r="N19" s="62">
+        <v>45568.741018171298</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="63"/>
+    </row>
+    <row r="18" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+    </row>
+    <row r="19" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
+      <c r="N19" s="33">
         <f ca="1">NOW()</f>
-        <v>45441.550125462963</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-    </row>
-    <row r="21" spans="3:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="50"/>
+        <v>45568.741018171298</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+    </row>
+    <row r="21" spans="3:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="C4:G11"/>
     <mergeCell ref="C14:G21"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1730,8 +1731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView showGridLines="0" topLeftCell="C9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1767,23 +1768,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="32"/>
+      <c r="L1" s="52"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1792,13 +1793,13 @@
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1808,20 +1809,20 @@
       </c>
       <c r="M4" s="25">
         <f ca="1">NOW()</f>
-        <v>45441.550125462963</v>
+        <v>45568.741018171298</v>
       </c>
       <c r="N4" s="26">
         <f ca="1">DAY(M4)</f>
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -1831,112 +1832,112 @@
       </c>
       <c r="M5" s="25">
         <f ca="1">M4-4</f>
-        <v>45437.550125462963</v>
-      </c>
-      <c r="N5" s="26">
-        <f ca="1">DAY(M5)</f>
-        <v>25</v>
-      </c>
+        <v>45564.741018171298</v>
+      </c>
+      <c r="N5" s="26"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
       <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
       <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
       <c r="L8" s="27" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="25">
         <f ca="1">NOW()</f>
-        <v>45441.550125462963</v>
-      </c>
-      <c r="N8" s="26"/>
+        <v>45568.741018171298</v>
+      </c>
+      <c r="N8" s="26">
+        <f ca="1">MONTH(M8)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
       <c r="L9" s="27" t="s">
         <v>10</v>
       </c>
       <c r="M9" s="25">
         <f ca="1">M8-5</f>
-        <v>45436.550125462963</v>
+        <v>45563.741018171298</v>
       </c>
       <c r="N9" s="26"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
       <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
       <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
       <c r="L12" s="27" t="s">
         <v>11</v>
       </c>
       <c r="M12" s="25">
         <f ca="1">NOW()</f>
-        <v>45441.550125462963</v>
+        <v>45568.741018171298</v>
       </c>
       <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="58"/>
       <c r="L13" s="27" t="s">
         <v>11</v>
       </c>
       <c r="M13" s="25">
         <f ca="1">M12-5</f>
-        <v>45436.550125462963</v>
+        <v>45563.741018171298</v>
       </c>
       <c r="N13" s="26"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="5"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="61"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B15" s="4"/>
@@ -1947,64 +1948,64 @@
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="6"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2027,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="84" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2061,23 +2062,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2086,13 +2087,13 @@
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -2109,11 +2110,11 @@
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -2123,11 +2124,11 @@
       </c>
       <c r="M5" s="29">
         <f ca="1">TODAY()</f>
-        <v>45441</v>
+        <v>45568</v>
       </c>
       <c r="N5" s="29">
         <f ca="1">M5-11</f>
-        <v>45430</v>
+        <v>45557</v>
       </c>
       <c r="O5" s="22">
         <f ca="1">_xlfn.DAYS(M5,N5)</f>
@@ -2139,11 +2140,11 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
       <c r="M6" s="29">
         <v>43383</v>
       </c>
@@ -2160,33 +2161,33 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="5"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
       <c r="M10" s="20" t="s">
         <v>15</v>
       </c>
@@ -2211,11 +2212,11 @@
       </c>
       <c r="M11" s="29">
         <f ca="1">TODAY()</f>
-        <v>45441</v>
+        <v>45568</v>
       </c>
       <c r="N11" s="29">
         <f ca="1">M11-11</f>
-        <v>45430</v>
+        <v>45557</v>
       </c>
       <c r="O11" s="22">
         <f ca="1">M11-N11</f>
@@ -2228,6 +2229,10 @@
       <c r="Q11" s="26">
         <f ca="1">P11*60</f>
         <v>15840</v>
+      </c>
+      <c r="R11">
+        <f ca="1">Q11*60</f>
+        <v>950400</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -2253,36 +2258,36 @@
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
       <c r="M16" s="20" t="s">
         <v>15</v>
       </c>
@@ -2294,21 +2299,21 @@
       </c>
     </row>
     <row r="17" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
       <c r="L17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="M17" s="29">
         <f ca="1">TODAY()</f>
-        <v>45441</v>
+        <v>45568</v>
       </c>
       <c r="N17" s="29">
         <f ca="1">M17-11</f>
-        <v>45430</v>
+        <v>45557</v>
       </c>
       <c r="O17" s="22">
         <f ca="1">DATEDIF(N17,M17,"d")</f>
@@ -2316,11 +2321,11 @@
       </c>
     </row>
     <row r="18" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
       <c r="M18" s="29">
         <v>43403</v>
       </c>
@@ -2333,11 +2338,11 @@
       </c>
     </row>
     <row r="19" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
       <c r="M19" s="29">
         <v>43382</v>
       </c>
@@ -2350,11 +2355,11 @@
       </c>
     </row>
     <row r="20" spans="3:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2378,7 +2383,7 @@
   <dimension ref="C3:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Excel/Data files/Lecture_4_Dates.xlsx
+++ b/Excel/Data files/Lecture_4_Dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ds_30\Excel\Data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3C7C1E-14C3-41CC-9EC3-4B38C7D2D322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6A5710-00CD-4CEB-8AAB-18E43AA8DD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TODAY, NOW" sheetId="2" r:id="rId1"/>
@@ -160,7 +160,7 @@
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yy\ \ h:mm"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="dd\-mm\-yyyy\ hh:mm"/>
-    <numFmt numFmtId="171" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="171" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -390,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -447,63 +447,63 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -535,6 +535,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1468,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17:O17"/>
+    <sheetView showGridLines="0" topLeftCell="D2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1489,6 +1490,7 @@
     <col min="13" max="13" width="11.7265625" customWidth="1"/>
     <col min="14" max="14" width="26.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1504,24 +1506,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1530,13 +1532,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1547,78 +1549,79 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
       <c r="M6" s="21" t="s">
         <v>4</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5">
         <f ca="1">TODAY()</f>
-        <v>45568</v>
+        <v>45571</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
       <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
       <c r="M8" s="21"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
       <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
       <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
       <c r="M11" s="21" t="s">
         <v>5</v>
       </c>
       <c r="N11" s="24"/>
       <c r="O11" s="23">
         <f ca="1">NOW()</f>
-        <v>45568.741018171298</v>
-      </c>
+        <v>45571.619835995371</v>
+      </c>
+      <c r="P11" s="23"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="4"/>
@@ -1631,96 +1634,102 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
       <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
       <c r="M15" s="21"/>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
       <c r="M16" s="21" t="s">
         <v>6</v>
       </c>
       <c r="N16" s="32">
         <f ca="1">NOW()</f>
-        <v>45568.741018171298</v>
+        <v>45571.619835995371</v>
       </c>
       <c r="O16" s="31">
         <f ca="1">NOW()</f>
-        <v>45568.741018171298</v>
+        <v>45571.619835995371</v>
       </c>
     </row>
     <row r="17" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="63"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="N17" s="32">
+        <f ca="1">NOW()</f>
+        <v>45571.619835995371</v>
+      </c>
+      <c r="O17" s="63">
+        <f ca="1">NOW()</f>
+        <v>45571.619835995371</v>
+      </c>
     </row>
     <row r="18" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
       <c r="N19" s="33">
         <f ca="1">NOW()</f>
-        <v>45568.741018171298</v>
+        <v>45571.619835995371</v>
       </c>
     </row>
     <row r="20" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="3:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="49"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C4:G11"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="C4:G11"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1731,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1768,23 +1777,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="52"/>
+      <c r="L1" s="34"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1809,11 +1818,11 @@
       </c>
       <c r="M4" s="25">
         <f ca="1">NOW()</f>
-        <v>45568.741018171298</v>
+        <v>45571.619835995371</v>
       </c>
       <c r="N4" s="26">
         <f ca="1">DAY(M4)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1832,7 +1841,7 @@
       </c>
       <c r="M5" s="25">
         <f ca="1">M4-4</f>
-        <v>45564.741018171298</v>
+        <v>45567.619835995371</v>
       </c>
       <c r="N5" s="26"/>
     </row>
@@ -1863,7 +1872,7 @@
       </c>
       <c r="M8" s="25">
         <f ca="1">NOW()</f>
-        <v>45568.741018171298</v>
+        <v>45571.619835995371</v>
       </c>
       <c r="N8" s="26">
         <f ca="1">MONTH(M8)</f>
@@ -1881,7 +1890,7 @@
       </c>
       <c r="M9" s="25">
         <f ca="1">M8-5</f>
-        <v>45563.741018171298</v>
+        <v>45566.619835995371</v>
       </c>
       <c r="N9" s="26"/>
     </row>
@@ -1912,9 +1921,12 @@
       </c>
       <c r="M12" s="25">
         <f ca="1">NOW()</f>
-        <v>45568.741018171298</v>
-      </c>
-      <c r="N12" s="26"/>
+        <v>45571.619835995371</v>
+      </c>
+      <c r="N12" s="26">
+        <f ca="1">YEAR(M12)</f>
+        <v>2024</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="56"/>
@@ -1927,7 +1939,7 @@
       </c>
       <c r="M13" s="25">
         <f ca="1">M12-5</f>
-        <v>45563.741018171298</v>
+        <v>45566.619835995371</v>
       </c>
       <c r="N13" s="26"/>
     </row>
@@ -1946,66 +1958,73 @@
     <row r="16" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C16" s="13"/>
     </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
-    </row>
-    <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+    </row>
+    <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="6"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-    </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="L18" s="32">
+        <v>34358</v>
+      </c>
+      <c r="M18" s="64">
+        <f ca="1">DATEDIF(L18,TODAY(),"Y")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-    </row>
-    <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-    </row>
-    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-    </row>
-    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-    </row>
-    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-    </row>
-    <row r="24" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="49"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="51"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+    </row>
+    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
+    </row>
+    <row r="21" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
+    </row>
+    <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
+    </row>
+    <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="49"/>
+    </row>
+    <row r="24" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2028,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="84" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18:Q18"/>
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="93" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2062,23 +2081,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2124,19 +2143,19 @@
       </c>
       <c r="M5" s="29">
         <f ca="1">TODAY()</f>
-        <v>45568</v>
+        <v>45571</v>
       </c>
       <c r="N5" s="29">
-        <f ca="1">M5-11</f>
-        <v>45557</v>
+        <f ca="1">M5-12</f>
+        <v>45559</v>
       </c>
       <c r="O5" s="22">
         <f ca="1">_xlfn.DAYS(M5,N5)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P5">
         <f ca="1">M5-N5</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2212,11 +2231,11 @@
       </c>
       <c r="M11" s="29">
         <f ca="1">TODAY()</f>
-        <v>45568</v>
+        <v>45571</v>
       </c>
       <c r="N11" s="29">
         <f ca="1">M11-11</f>
-        <v>45557</v>
+        <v>45560</v>
       </c>
       <c r="O11" s="22">
         <f ca="1">M11-N11</f>
@@ -2258,36 +2277,36 @@
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
       <c r="M16" s="20" t="s">
         <v>15</v>
       </c>
@@ -2299,21 +2318,21 @@
       </c>
     </row>
     <row r="17" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
       <c r="L17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="M17" s="29">
         <f ca="1">TODAY()</f>
-        <v>45568</v>
+        <v>45571</v>
       </c>
       <c r="N17" s="29">
         <f ca="1">M17-11</f>
-        <v>45557</v>
+        <v>45560</v>
       </c>
       <c r="O17" s="22">
         <f ca="1">DATEDIF(N17,M17,"d")</f>
@@ -2321,11 +2340,11 @@
       </c>
     </row>
     <row r="18" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
       <c r="M18" s="29">
         <v>43403</v>
       </c>
@@ -2333,16 +2352,16 @@
         <v>42943</v>
       </c>
       <c r="O18" s="22">
-        <f>DATEDIF(N18,M18,"m")</f>
+        <f>DATEDIF(N18,M18,"M")</f>
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
       <c r="M19" s="29">
         <v>43382</v>
       </c>
@@ -2355,11 +2374,11 @@
       </c>
     </row>
     <row r="20" spans="3:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="9">
